--- a/msmnt_baseline-report.xlsx
+++ b/msmnt_baseline-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="18855" windowHeight="7875" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="18855" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="baseline-A" sheetId="3" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>3 (March 31)</t>
   </si>
   <si>
-    <t>(April 2)</t>
-  </si>
-  <si>
     <t>13 (April 2)</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>01 (March 11)</t>
   </si>
   <si>
-    <t>(April 1)</t>
-  </si>
-  <si>
     <t>09 (March 23)</t>
   </si>
   <si>
@@ -499,6 +493,12 @@
   </si>
   <si>
     <t>15 (March 31)</t>
+  </si>
+  <si>
+    <t>16 (April 1)</t>
+  </si>
+  <si>
+    <t>17 (April 2)</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3569,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3589,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3609,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3629,7 +3629,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3649,7 +3649,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3669,7 +3669,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3689,7 +3689,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3709,7 +3709,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3729,7 +3729,7 @@
         <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3749,7 +3749,7 @@
         <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3829,7 +3829,7 @@
         <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3956,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3972,30 +3972,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -4004,78 +4004,78 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>109</v>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -4084,275 +4084,275 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -4364,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4375,19 +4375,19 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4398,124 +4398,124 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -4524,55 +4524,55 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -4584,90 +4584,90 @@
         <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4675,16 +4675,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>152</v>
@@ -4692,19 +4692,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>152</v>
@@ -4721,10 +4721,10 @@
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>153</v>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>153</v>
@@ -4752,19 +4752,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>153</v>
@@ -4772,39 +4772,39 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>154</v>
@@ -4812,19 +4812,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>154</v>
@@ -4838,13 +4838,13 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>155</v>
@@ -4855,7 +4855,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -4864,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>155</v>
@@ -4875,16 +4875,16 @@
         <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>155</v>
@@ -4895,16 +4895,16 @@
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>156</v>
@@ -4915,16 +4915,16 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>156</v>
@@ -4935,7 +4935,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -4944,7 +4944,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>156</v>
@@ -4955,36 +4955,36 @@
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>98</v>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>157</v>
@@ -5001,10 +5001,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>157</v>
@@ -5015,7 +5015,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
@@ -5024,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>158</v>
@@ -5035,16 +5035,16 @@
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>158</v>
@@ -5055,16 +5055,16 @@
         <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>158</v>
@@ -5183,8 +5183,8 @@
       <c r="F69" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A1:F55">
-    <sortCondition ref="F1:F55"/>
+  <sortState ref="A1:F69">
+    <sortCondition ref="F1:F69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msmnt_baseline-report.xlsx
+++ b/msmnt_baseline-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="18855" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="18855" windowHeight="7875" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="baseline-A" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="167">
   <si>
     <t>B3</t>
   </si>
@@ -499,6 +499,30 @@
   </si>
   <si>
     <t>17 (April 2)</t>
+  </si>
+  <si>
+    <t>1 Strongly disagree.</t>
+  </si>
+  <si>
+    <t>NONE Neither agree or disagree.</t>
+  </si>
+  <si>
+    <t>3 Somewhat agree.</t>
+  </si>
+  <si>
+    <t>2 Somewhat disagree.</t>
+  </si>
+  <si>
+    <t>2 Somewhat agree.</t>
+  </si>
+  <si>
+    <t>4 Strongly agree.</t>
+  </si>
+  <si>
+    <t>NONE Neither agree or disagree (for example you did not talk to your Team Coach today).</t>
+  </si>
+  <si>
+    <t>4 Somewhat agree.</t>
   </si>
 </sst>
 </file>
@@ -2690,16 +2714,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2712,10 +2736,10 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
@@ -2732,10 +2756,10 @@
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>65</v>
@@ -2752,10 +2776,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>99</v>
@@ -2772,10 +2796,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>111</v>
@@ -3061,15 +3085,15 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3082,10 +3106,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
@@ -3102,10 +3126,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>86</v>
@@ -3122,10 +3146,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>94</v>
@@ -3539,15 +3563,15 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3560,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3580,10 +3604,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -3600,10 +3624,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -3620,10 +3644,10 @@
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>44</v>
@@ -3640,10 +3664,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>47</v>
@@ -3660,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>60</v>
@@ -3680,10 +3704,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -3700,10 +3724,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -3720,10 +3744,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>77</v>
@@ -3740,10 +3764,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>82</v>
@@ -3760,10 +3784,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>91</v>
@@ -3780,10 +3804,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>96</v>
@@ -3800,10 +3824,10 @@
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>100</v>
@@ -3820,10 +3844,10 @@
         <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>107</v>
@@ -3956,16 +3980,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3978,10 +4002,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -3998,10 +4022,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -4018,10 +4042,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -4038,10 +4062,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -4058,10 +4082,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>28</v>
@@ -4078,10 +4102,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -4098,10 +4122,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
@@ -4118,10 +4142,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -4138,10 +4162,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
@@ -4158,10 +4182,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
@@ -4178,10 +4202,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>41</v>
@@ -4198,10 +4222,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
@@ -4218,10 +4242,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -4238,10 +4262,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
@@ -4258,10 +4282,10 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>49</v>
@@ -4278,10 +4302,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>55</v>
@@ -4298,10 +4322,10 @@
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>53</v>
@@ -4318,10 +4342,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
@@ -4338,10 +4362,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
@@ -4358,10 +4382,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>63</v>
@@ -4378,10 +4402,10 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
@@ -4398,10 +4422,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>62</v>
@@ -4418,10 +4442,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>72</v>
@@ -4438,10 +4462,10 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>71</v>
@@ -4458,10 +4482,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>68</v>
@@ -4478,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>69</v>
@@ -4498,10 +4522,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>70</v>
@@ -4518,10 +4542,10 @@
         <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>67</v>
@@ -4538,10 +4562,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>75</v>
@@ -4558,10 +4582,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>76</v>
@@ -4578,10 +4602,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>74</v>
@@ -4598,10 +4622,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>81</v>
@@ -4618,10 +4642,10 @@
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>79</v>
@@ -4638,10 +4662,10 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>78</v>
@@ -4658,10 +4682,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>80</v>
@@ -4678,10 +4702,10 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>85</v>
@@ -4698,10 +4722,10 @@
         <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>84</v>
@@ -4718,10 +4742,10 @@
         <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>89</v>
@@ -4738,10 +4762,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>88</v>
@@ -4758,10 +4782,10 @@
         <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>87</v>
@@ -4778,10 +4802,10 @@
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>90</v>
@@ -4798,10 +4822,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>92</v>
@@ -4818,10 +4842,10 @@
         <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>93</v>
@@ -4838,10 +4862,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>95</v>
@@ -4858,10 +4882,10 @@
         <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>98</v>
@@ -4878,10 +4902,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>97</v>
@@ -4898,10 +4922,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>103</v>
@@ -4918,10 +4942,10 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>101</v>
@@ -4938,10 +4962,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>102</v>
@@ -4958,10 +4982,10 @@
         <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>105</v>
@@ -4978,10 +5002,10 @@
         <v>34</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>106</v>
@@ -4998,10 +5022,10 @@
         <v>42</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>104</v>
@@ -5018,10 +5042,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>110</v>
@@ -5038,10 +5062,10 @@
         <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>109</v>
@@ -5058,10 +5082,10 @@
         <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>108</v>
